--- a/src/main/webapp/attached/project/town.xlsx
+++ b/src/main/webapp/attached/project/town.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C5F0E-91A5-40C3-A0C6-7A41D30CD483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67CEF1D-E3D1-4ACF-AB6C-7A3D943E0DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目金额（万元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,10 +39,6 @@
   </si>
   <si>
     <t>测试项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旗级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -393,142 +385,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="19.4140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
+    <col min="2" max="4" width="19.4140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
+      <c r="E1" t="s">
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>23.06</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2">
-        <v>23.06</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>43363</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F4" s="3"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F5" s="3"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F12" s="3"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F13" s="3"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="3"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E18" s="3"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="3"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="3"/>
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/webapp/attached/project/town.xlsx
+++ b/src/main/webapp/attached/project/town.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67CEF1D-E3D1-4ACF-AB6C-7A3D943E0DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D0574F-BF36-429D-A1DC-1CBA9A55A9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,22 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部门名称</t>
   </si>
   <si>
-    <t>财政局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嘎查村名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敖包村</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +376,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -407,10 +395,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -420,24 +408,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>23.06</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3">
-        <v>43363</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="3"/>
